--- a/US/data/BTS/TRPT/TVT_historical - Rural - Monthly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Monthly.xlsx
@@ -3471,19 +3471,19 @@
         <v>18980</v>
       </c>
       <c r="NJ2" t="n">
-        <v>18311</v>
+        <v>18310</v>
       </c>
       <c r="NK2" t="n">
         <v>16359</v>
       </c>
       <c r="NL2" t="n">
-        <v>21924</v>
+        <v>21910</v>
       </c>
       <c r="NM2" t="n">
-        <v>20910</v>
+        <v>20749</v>
       </c>
       <c r="NN2" t="n">
-        <v>23954</v>
+        <v>23951</v>
       </c>
       <c r="NO2" t="n">
         <v>24693</v>
@@ -3498,7 +3498,7 @@
         <v>22907</v>
       </c>
       <c r="NS2" t="n">
-        <v>23665</v>
+        <v>23664</v>
       </c>
       <c r="NT2" t="n">
         <v>22729</v>
@@ -3507,10 +3507,14 @@
         <v>22433</v>
       </c>
       <c r="NV2" t="n">
-        <v>19020</v>
-      </c>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
+        <v>19014</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>18353</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>22764</v>
+      </c>
       <c r="NY2" t="inlineStr"/>
       <c r="NZ2" t="inlineStr"/>
       <c r="OA2" t="inlineStr"/>
@@ -4650,22 +4654,22 @@
         <v>24934</v>
       </c>
       <c r="NL3" t="n">
-        <v>32493</v>
+        <v>32484</v>
       </c>
       <c r="NM3" t="n">
-        <v>31591</v>
+        <v>31479</v>
       </c>
       <c r="NN3" t="n">
-        <v>34650</v>
+        <v>34642</v>
       </c>
       <c r="NO3" t="n">
-        <v>35419</v>
+        <v>35403</v>
       </c>
       <c r="NP3" t="n">
         <v>36938</v>
       </c>
       <c r="NQ3" t="n">
-        <v>35391</v>
+        <v>35390</v>
       </c>
       <c r="NR3" t="n">
         <v>33921</v>
@@ -4677,13 +4681,17 @@
         <v>32115</v>
       </c>
       <c r="NU3" t="n">
-        <v>31725</v>
+        <v>31726</v>
       </c>
       <c r="NV3" t="n">
-        <v>28053</v>
-      </c>
-      <c r="NW3" t="inlineStr"/>
-      <c r="NX3" t="inlineStr"/>
+        <v>28054</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>27461</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>32678</v>
+      </c>
       <c r="NY3" t="inlineStr"/>
       <c r="NZ3" t="inlineStr"/>
       <c r="OA3" t="inlineStr"/>
@@ -5823,16 +5831,16 @@
         <v>22106</v>
       </c>
       <c r="NL4" t="n">
-        <v>28583</v>
+        <v>28581</v>
       </c>
       <c r="NM4" t="n">
-        <v>28364</v>
+        <v>28133</v>
       </c>
       <c r="NN4" t="n">
-        <v>31342</v>
+        <v>31304</v>
       </c>
       <c r="NO4" t="n">
-        <v>31563</v>
+        <v>31562</v>
       </c>
       <c r="NP4" t="n">
         <v>33354</v>
@@ -5853,10 +5861,14 @@
         <v>27769</v>
       </c>
       <c r="NV4" t="n">
-        <v>24755</v>
-      </c>
-      <c r="NW4" t="inlineStr"/>
-      <c r="NX4" t="inlineStr"/>
+        <v>24749</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>24220</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>28661</v>
+      </c>
       <c r="NY4" t="inlineStr"/>
       <c r="NZ4" t="inlineStr"/>
       <c r="OA4" t="inlineStr"/>
@@ -6996,16 +7008,16 @@
         <v>63399</v>
       </c>
       <c r="NL5" t="n">
-        <v>83000</v>
+        <v>82974</v>
       </c>
       <c r="NM5" t="n">
-        <v>80866</v>
+        <v>80361</v>
       </c>
       <c r="NN5" t="n">
-        <v>89946</v>
+        <v>89896</v>
       </c>
       <c r="NO5" t="n">
-        <v>91675</v>
+        <v>91658</v>
       </c>
       <c r="NP5" t="n">
         <v>96770</v>
@@ -7023,13 +7035,17 @@
         <v>83279</v>
       </c>
       <c r="NU5" t="n">
-        <v>81927</v>
+        <v>81928</v>
       </c>
       <c r="NV5" t="n">
-        <v>71828</v>
-      </c>
-      <c r="NW5" t="inlineStr"/>
-      <c r="NX5" t="inlineStr"/>
+        <v>71817</v>
+      </c>
+      <c r="NW5" t="n">
+        <v>70033</v>
+      </c>
+      <c r="NX5" t="n">
+        <v>84104</v>
+      </c>
       <c r="NY5" t="inlineStr"/>
       <c r="NZ5" t="inlineStr"/>
       <c r="OA5" t="inlineStr"/>

--- a/US/data/BTS/TRPT/TVT_historical - Rural - Monthly.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Rural - Monthly.xlsx
@@ -3513,9 +3513,11 @@
         <v>18353</v>
       </c>
       <c r="NX2" t="n">
-        <v>22764</v>
-      </c>
-      <c r="NY2" t="inlineStr"/>
+        <v>22735</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>20902</v>
+      </c>
       <c r="NZ2" t="inlineStr"/>
       <c r="OA2" t="inlineStr"/>
       <c r="OB2" t="inlineStr"/>
@@ -4690,9 +4692,11 @@
         <v>27461</v>
       </c>
       <c r="NX3" t="n">
-        <v>32678</v>
-      </c>
-      <c r="NY3" t="inlineStr"/>
+        <v>32635</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>31176</v>
+      </c>
       <c r="NZ3" t="inlineStr"/>
       <c r="OA3" t="inlineStr"/>
       <c r="OB3" t="inlineStr"/>
@@ -5867,9 +5871,11 @@
         <v>24220</v>
       </c>
       <c r="NX4" t="n">
-        <v>28661</v>
-      </c>
-      <c r="NY4" t="inlineStr"/>
+        <v>28637</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>27967</v>
+      </c>
       <c r="NZ4" t="inlineStr"/>
       <c r="OA4" t="inlineStr"/>
       <c r="OB4" t="inlineStr"/>
@@ -7044,9 +7050,11 @@
         <v>70033</v>
       </c>
       <c r="NX5" t="n">
-        <v>84104</v>
-      </c>
-      <c r="NY5" t="inlineStr"/>
+        <v>84007</v>
+      </c>
+      <c r="NY5" t="n">
+        <v>80045</v>
+      </c>
       <c r="NZ5" t="inlineStr"/>
       <c r="OA5" t="inlineStr"/>
       <c r="OB5" t="inlineStr"/>
